--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/72425_SUMMARY.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/72425_SUMMARY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Cell Number</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Inclusions</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +459,9 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -464,6 +472,9 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -474,6 +485,9 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -484,6 +498,9 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -494,6 +511,9 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +524,9 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -514,6 +537,9 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -524,6 +550,9 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -534,6 +563,9 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -544,6 +576,9 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -554,6 +589,9 @@
       <c r="B12" t="n">
         <v>11</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -564,6 +602,9 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -574,6 +615,9 @@
       <c r="B14" t="n">
         <v>2</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -584,6 +628,9 @@
       <c r="B15" t="n">
         <v>3</v>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -594,6 +641,9 @@
       <c r="B16" t="n">
         <v>4</v>
       </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -604,6 +654,9 @@
       <c r="B17" t="n">
         <v>5</v>
       </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -614,6 +667,9 @@
       <c r="B18" t="n">
         <v>6</v>
       </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -624,6 +680,9 @@
       <c r="B19" t="n">
         <v>7</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -634,6 +693,9 @@
       <c r="B20" t="n">
         <v>8</v>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -644,6 +706,9 @@
       <c r="B21" t="n">
         <v>9</v>
       </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -654,6 +719,9 @@
       <c r="B22" t="n">
         <v>1</v>
       </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -664,6 +732,9 @@
       <c r="B23" t="n">
         <v>2</v>
       </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -674,6 +745,9 @@
       <c r="B24" t="n">
         <v>3</v>
       </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -684,6 +758,9 @@
       <c r="B25" t="n">
         <v>4</v>
       </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -694,6 +771,9 @@
       <c r="B26" t="n">
         <v>5</v>
       </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -704,6 +784,9 @@
       <c r="B27" t="n">
         <v>6</v>
       </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -714,6 +797,9 @@
       <c r="B28" t="n">
         <v>7</v>
       </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -724,6 +810,9 @@
       <c r="B29" t="n">
         <v>1</v>
       </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -734,6 +823,9 @@
       <c r="B30" t="n">
         <v>2</v>
       </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -744,6 +836,9 @@
       <c r="B31" t="n">
         <v>3</v>
       </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -754,6 +849,9 @@
       <c r="B32" t="n">
         <v>1</v>
       </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -764,6 +862,9 @@
       <c r="B33" t="n">
         <v>2</v>
       </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -774,6 +875,9 @@
       <c r="B34" t="n">
         <v>3</v>
       </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -784,6 +888,9 @@
       <c r="B35" t="n">
         <v>4</v>
       </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -794,6 +901,9 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -804,6 +914,9 @@
       <c r="B37" t="n">
         <v>2</v>
       </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -814,6 +927,9 @@
       <c r="B38" t="n">
         <v>3</v>
       </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -824,6 +940,9 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -834,6 +953,9 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -844,6 +966,9 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -854,6 +979,9 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -864,6 +992,9 @@
       <c r="B43" t="n">
         <v>2</v>
       </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -874,6 +1005,9 @@
       <c r="B44" t="n">
         <v>3</v>
       </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -884,6 +1018,9 @@
       <c r="B45" t="n">
         <v>4</v>
       </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -894,6 +1031,9 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -904,6 +1044,9 @@
       <c r="B47" t="n">
         <v>1</v>
       </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -914,6 +1057,9 @@
       <c r="B48" t="n">
         <v>2</v>
       </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -924,6 +1070,9 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -934,6 +1083,9 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -944,6 +1096,9 @@
       <c r="B51" t="n">
         <v>5</v>
       </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -954,6 +1109,9 @@
       <c r="B52" t="n">
         <v>6</v>
       </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -964,6 +1122,9 @@
       <c r="B53" t="n">
         <v>1</v>
       </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -974,6 +1135,9 @@
       <c r="B54" t="n">
         <v>2</v>
       </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -984,6 +1148,9 @@
       <c r="B55" t="n">
         <v>3</v>
       </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -994,6 +1161,9 @@
       <c r="B56" t="n">
         <v>4</v>
       </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1004,6 +1174,9 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1014,6 +1187,9 @@
       <c r="B58" t="n">
         <v>2</v>
       </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1024,6 +1200,9 @@
       <c r="B59" t="n">
         <v>3</v>
       </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1034,6 +1213,9 @@
       <c r="B60" t="n">
         <v>4</v>
       </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1044,6 +1226,9 @@
       <c r="B61" t="n">
         <v>5</v>
       </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1054,6 +1239,9 @@
       <c r="B62" t="n">
         <v>6</v>
       </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1064,6 +1252,9 @@
       <c r="B63" t="n">
         <v>1</v>
       </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1074,6 +1265,9 @@
       <c r="B64" t="n">
         <v>2</v>
       </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1084,6 +1278,9 @@
       <c r="B65" t="n">
         <v>3</v>
       </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1094,6 +1291,9 @@
       <c r="B66" t="n">
         <v>1</v>
       </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1104,6 +1304,9 @@
       <c r="B67" t="n">
         <v>2</v>
       </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1114,6 +1317,9 @@
       <c r="B68" t="n">
         <v>3</v>
       </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1124,6 +1330,9 @@
       <c r="B69" t="n">
         <v>4</v>
       </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1134,6 +1343,9 @@
       <c r="B70" t="n">
         <v>5</v>
       </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1144,6 +1356,9 @@
       <c r="B71" t="n">
         <v>6</v>
       </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1154,6 +1369,9 @@
       <c r="B72" t="n">
         <v>7</v>
       </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1164,6 +1382,9 @@
       <c r="B73" t="n">
         <v>8</v>
       </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1174,6 +1395,9 @@
       <c r="B74" t="n">
         <v>9</v>
       </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1184,6 +1408,9 @@
       <c r="B75" t="n">
         <v>10</v>
       </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1194,6 +1421,9 @@
       <c r="B76" t="n">
         <v>1</v>
       </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1204,6 +1434,9 @@
       <c r="B77" t="n">
         <v>2</v>
       </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1214,6 +1447,9 @@
       <c r="B78" t="n">
         <v>3</v>
       </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1224,6 +1460,9 @@
       <c r="B79" t="n">
         <v>4</v>
       </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1234,6 +1473,9 @@
       <c r="B80" t="n">
         <v>5</v>
       </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1244,6 +1486,9 @@
       <c r="B81" t="n">
         <v>1</v>
       </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1254,6 +1499,9 @@
       <c r="B82" t="n">
         <v>2</v>
       </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1264,6 +1512,9 @@
       <c r="B83" t="n">
         <v>3</v>
       </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1274,6 +1525,9 @@
       <c r="B84" t="n">
         <v>4</v>
       </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1284,6 +1538,9 @@
       <c r="B85" t="n">
         <v>1</v>
       </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1294,6 +1551,9 @@
       <c r="B86" t="n">
         <v>2</v>
       </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1304,6 +1564,9 @@
       <c r="B87" t="n">
         <v>1</v>
       </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1314,6 +1577,9 @@
       <c r="B88" t="n">
         <v>2</v>
       </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1324,6 +1590,9 @@
       <c r="B89" t="n">
         <v>3</v>
       </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1334,6 +1603,9 @@
       <c r="B90" t="n">
         <v>4</v>
       </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1344,6 +1616,9 @@
       <c r="B91" t="n">
         <v>5</v>
       </c>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1354,6 +1629,9 @@
       <c r="B92" t="n">
         <v>6</v>
       </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1364,6 +1642,9 @@
       <c r="B93" t="n">
         <v>1</v>
       </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1374,6 +1655,9 @@
       <c r="B94" t="n">
         <v>2</v>
       </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1384,6 +1668,9 @@
       <c r="B95" t="n">
         <v>3</v>
       </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1394,6 +1681,9 @@
       <c r="B96" t="n">
         <v>4</v>
       </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1404,6 +1694,9 @@
       <c r="B97" t="n">
         <v>5</v>
       </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1414,6 +1707,9 @@
       <c r="B98" t="n">
         <v>6</v>
       </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1424,6 +1720,9 @@
       <c r="B99" t="n">
         <v>7</v>
       </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1434,6 +1733,9 @@
       <c r="B100" t="n">
         <v>8</v>
       </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1444,6 +1746,9 @@
       <c r="B101" t="n">
         <v>9</v>
       </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1454,6 +1759,9 @@
       <c r="B102" t="n">
         <v>1</v>
       </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1464,6 +1772,9 @@
       <c r="B103" t="n">
         <v>2</v>
       </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1474,6 +1785,9 @@
       <c r="B104" t="n">
         <v>3</v>
       </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1484,6 +1798,9 @@
       <c r="B105" t="n">
         <v>4</v>
       </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1494,6 +1811,9 @@
       <c r="B106" t="n">
         <v>5</v>
       </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1504,6 +1824,9 @@
       <c r="B107" t="n">
         <v>1</v>
       </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1514,6 +1837,9 @@
       <c r="B108" t="n">
         <v>2</v>
       </c>
+      <c r="C108" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1524,6 +1850,9 @@
       <c r="B109" t="n">
         <v>1</v>
       </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1534,6 +1863,9 @@
       <c r="B110" t="n">
         <v>2</v>
       </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1544,6 +1876,9 @@
       <c r="B111" t="n">
         <v>3</v>
       </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1554,6 +1889,9 @@
       <c r="B112" t="n">
         <v>4</v>
       </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1564,6 +1902,9 @@
       <c r="B113" t="n">
         <v>5</v>
       </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1574,6 +1915,9 @@
       <c r="B114" t="n">
         <v>6</v>
       </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1584,6 +1928,9 @@
       <c r="B115" t="n">
         <v>1</v>
       </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1594,6 +1941,9 @@
       <c r="B116" t="n">
         <v>2</v>
       </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1604,6 +1954,9 @@
       <c r="B117" t="n">
         <v>3</v>
       </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1614,6 +1967,9 @@
       <c r="B118" t="n">
         <v>4</v>
       </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1624,6 +1980,9 @@
       <c r="B119" t="n">
         <v>1</v>
       </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1634,6 +1993,9 @@
       <c r="B120" t="n">
         <v>2</v>
       </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1644,6 +2006,9 @@
       <c r="B121" t="n">
         <v>3</v>
       </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1654,6 +2019,9 @@
       <c r="B122" t="n">
         <v>4</v>
       </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1664,6 +2032,9 @@
       <c r="B123" t="n">
         <v>5</v>
       </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1674,6 +2045,9 @@
       <c r="B124" t="n">
         <v>6</v>
       </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1684,6 +2058,9 @@
       <c r="B125" t="n">
         <v>7</v>
       </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1694,6 +2071,9 @@
       <c r="B126" t="n">
         <v>8</v>
       </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1704,6 +2084,9 @@
       <c r="B127" t="n">
         <v>1</v>
       </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1714,6 +2097,9 @@
       <c r="B128" t="n">
         <v>2</v>
       </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1724,6 +2110,9 @@
       <c r="B129" t="n">
         <v>3</v>
       </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1734,6 +2123,9 @@
       <c r="B130" t="n">
         <v>4</v>
       </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1744,6 +2136,9 @@
       <c r="B131" t="n">
         <v>5</v>
       </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1754,6 +2149,9 @@
       <c r="B132" t="n">
         <v>1</v>
       </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1764,6 +2162,9 @@
       <c r="B133" t="n">
         <v>2</v>
       </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1774,6 +2175,9 @@
       <c r="B134" t="n">
         <v>3</v>
       </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1784,6 +2188,9 @@
       <c r="B135" t="n">
         <v>4</v>
       </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1794,6 +2201,9 @@
       <c r="B136" t="n">
         <v>1</v>
       </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -1804,6 +2214,9 @@
       <c r="B137" t="n">
         <v>2</v>
       </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -1814,6 +2227,9 @@
       <c r="B138" t="n">
         <v>3</v>
       </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -1824,6 +2240,9 @@
       <c r="B139" t="n">
         <v>4</v>
       </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -1834,6 +2253,9 @@
       <c r="B140" t="n">
         <v>5</v>
       </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -1844,6 +2266,9 @@
       <c r="B141" t="n">
         <v>6</v>
       </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -1854,6 +2279,9 @@
       <c r="B142" t="n">
         <v>7</v>
       </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -1864,6 +2292,9 @@
       <c r="B143" t="n">
         <v>8</v>
       </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -1874,6 +2305,9 @@
       <c r="B144" t="n">
         <v>9</v>
       </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -1883,6 +2317,9 @@
       </c>
       <c r="B145" t="n">
         <v>10</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/72425_SUMMARY.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/72425_SUMMARY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>Number of Inclusions</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Mitophagy Events in Donut</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Mitophagy Events Outside Dialated Area</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +472,12 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +491,12 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +510,12 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,6 +529,12 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,6 +548,12 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -527,6 +567,12 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -540,6 +586,12 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -553,6 +605,12 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -566,6 +624,12 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -579,6 +643,12 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -592,6 +662,12 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -605,6 +681,12 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -618,6 +700,12 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -631,6 +719,12 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -644,6 +738,12 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -657,6 +757,12 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -670,6 +776,12 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -683,6 +795,12 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -696,6 +814,12 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -709,6 +833,12 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -722,6 +852,12 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -735,6 +871,12 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -748,6 +890,12 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -761,6 +909,12 @@
       <c r="C25" t="n">
         <v>2</v>
       </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -774,6 +928,12 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -787,6 +947,12 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -800,6 +966,12 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -813,6 +985,12 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -826,6 +1004,12 @@
       <c r="C30" t="n">
         <v>1</v>
       </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -839,6 +1023,12 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -852,6 +1042,12 @@
       <c r="C32" t="n">
         <v>3</v>
       </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -865,6 +1061,12 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -878,6 +1080,12 @@
       <c r="C34" t="n">
         <v>2</v>
       </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -891,6 +1099,12 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -904,6 +1118,12 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -917,6 +1137,12 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -930,6 +1156,12 @@
       <c r="C38" t="n">
         <v>0</v>
       </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -943,6 +1175,12 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -956,6 +1194,12 @@
       <c r="C40" t="n">
         <v>2</v>
       </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -969,6 +1213,12 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -982,6 +1232,12 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -995,6 +1251,12 @@
       <c r="C43" t="n">
         <v>1</v>
       </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1008,6 +1270,12 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1021,6 +1289,12 @@
       <c r="C45" t="n">
         <v>3</v>
       </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1034,6 +1308,12 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1047,6 +1327,12 @@
       <c r="C47" t="n">
         <v>1</v>
       </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1060,6 +1346,12 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1073,6 +1365,12 @@
       <c r="C49" t="n">
         <v>0</v>
       </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1086,6 +1384,12 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1099,6 +1403,12 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1112,6 +1422,12 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1125,6 +1441,12 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1138,6 +1460,12 @@
       <c r="C54" t="n">
         <v>1</v>
       </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1151,6 +1479,12 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1164,6 +1498,12 @@
       <c r="C56" t="n">
         <v>1</v>
       </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1177,6 +1517,12 @@
       <c r="C57" t="n">
         <v>0</v>
       </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1190,6 +1536,12 @@
       <c r="C58" t="n">
         <v>1</v>
       </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1203,6 +1555,12 @@
       <c r="C59" t="n">
         <v>1</v>
       </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1216,6 +1574,12 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1229,6 +1593,12 @@
       <c r="C61" t="n">
         <v>0</v>
       </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1242,6 +1612,12 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1255,6 +1631,12 @@
       <c r="C63" t="n">
         <v>0</v>
       </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1268,6 +1650,12 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1281,6 +1669,12 @@
       <c r="C65" t="n">
         <v>2</v>
       </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1294,6 +1688,12 @@
       <c r="C66" t="n">
         <v>2</v>
       </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1307,6 +1707,12 @@
       <c r="C67" t="n">
         <v>0</v>
       </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1320,6 +1726,12 @@
       <c r="C68" t="n">
         <v>0</v>
       </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1333,6 +1745,12 @@
       <c r="C69" t="n">
         <v>0</v>
       </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1346,6 +1764,12 @@
       <c r="C70" t="n">
         <v>1</v>
       </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1359,6 +1783,12 @@
       <c r="C71" t="n">
         <v>0</v>
       </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1372,6 +1802,12 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1385,6 +1821,12 @@
       <c r="C73" t="n">
         <v>2</v>
       </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1398,6 +1840,12 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1411,6 +1859,12 @@
       <c r="C75" t="n">
         <v>0</v>
       </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1424,6 +1878,12 @@
       <c r="C76" t="n">
         <v>1</v>
       </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1437,6 +1897,12 @@
       <c r="C77" t="n">
         <v>1</v>
       </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1450,6 +1916,12 @@
       <c r="C78" t="n">
         <v>1</v>
       </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1463,6 +1935,12 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1476,6 +1954,12 @@
       <c r="C80" t="n">
         <v>1</v>
       </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1489,6 +1973,12 @@
       <c r="C81" t="n">
         <v>0</v>
       </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1502,6 +1992,12 @@
       <c r="C82" t="n">
         <v>1</v>
       </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1515,6 +2011,12 @@
       <c r="C83" t="n">
         <v>2</v>
       </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1528,6 +2030,12 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1541,6 +2049,12 @@
       <c r="C85" t="n">
         <v>0</v>
       </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1554,6 +2068,12 @@
       <c r="C86" t="n">
         <v>3</v>
       </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1567,6 +2087,12 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1580,6 +2106,12 @@
       <c r="C88" t="n">
         <v>0</v>
       </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1593,6 +2125,12 @@
       <c r="C89" t="n">
         <v>2</v>
       </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1606,6 +2144,12 @@
       <c r="C90" t="n">
         <v>2</v>
       </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1619,6 +2163,12 @@
       <c r="C91" t="n">
         <v>4</v>
       </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1632,6 +2182,12 @@
       <c r="C92" t="n">
         <v>1</v>
       </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1645,6 +2201,12 @@
       <c r="C93" t="n">
         <v>0</v>
       </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1658,6 +2220,12 @@
       <c r="C94" t="n">
         <v>0</v>
       </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1671,6 +2239,12 @@
       <c r="C95" t="n">
         <v>1</v>
       </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1684,6 +2258,12 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1697,6 +2277,12 @@
       <c r="C97" t="n">
         <v>0</v>
       </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1710,6 +2296,12 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1723,6 +2315,12 @@
       <c r="C99" t="n">
         <v>1</v>
       </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1736,6 +2334,12 @@
       <c r="C100" t="n">
         <v>2</v>
       </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1749,6 +2353,12 @@
       <c r="C101" t="n">
         <v>0</v>
       </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1762,6 +2372,12 @@
       <c r="C102" t="n">
         <v>0</v>
       </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1775,6 +2391,12 @@
       <c r="C103" t="n">
         <v>2</v>
       </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1788,6 +2410,12 @@
       <c r="C104" t="n">
         <v>1</v>
       </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1801,6 +2429,12 @@
       <c r="C105" t="n">
         <v>0</v>
       </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1814,6 +2448,12 @@
       <c r="C106" t="n">
         <v>0</v>
       </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1827,6 +2467,12 @@
       <c r="C107" t="n">
         <v>0</v>
       </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1840,6 +2486,12 @@
       <c r="C108" t="n">
         <v>6</v>
       </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1853,6 +2505,12 @@
       <c r="C109" t="n">
         <v>0</v>
       </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1866,6 +2524,12 @@
       <c r="C110" t="n">
         <v>0</v>
       </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1879,6 +2543,12 @@
       <c r="C111" t="n">
         <v>0</v>
       </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1892,6 +2562,12 @@
       <c r="C112" t="n">
         <v>0</v>
       </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1905,6 +2581,12 @@
       <c r="C113" t="n">
         <v>3</v>
       </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1918,6 +2600,12 @@
       <c r="C114" t="n">
         <v>3</v>
       </c>
+      <c r="D114" t="n">
+        <v>4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1931,6 +2619,12 @@
       <c r="C115" t="n">
         <v>0</v>
       </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1944,6 +2638,12 @@
       <c r="C116" t="n">
         <v>0</v>
       </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1957,6 +2657,12 @@
       <c r="C117" t="n">
         <v>1</v>
       </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1970,6 +2676,12 @@
       <c r="C118" t="n">
         <v>1</v>
       </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1983,6 +2695,12 @@
       <c r="C119" t="n">
         <v>0</v>
       </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1996,6 +2714,12 @@
       <c r="C120" t="n">
         <v>0</v>
       </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2009,6 +2733,12 @@
       <c r="C121" t="n">
         <v>0</v>
       </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2022,6 +2752,12 @@
       <c r="C122" t="n">
         <v>1</v>
       </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2035,6 +2771,12 @@
       <c r="C123" t="n">
         <v>0</v>
       </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2048,6 +2790,12 @@
       <c r="C124" t="n">
         <v>0</v>
       </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2061,6 +2809,12 @@
       <c r="C125" t="n">
         <v>0</v>
       </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2074,6 +2828,12 @@
       <c r="C126" t="n">
         <v>0</v>
       </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2087,6 +2847,12 @@
       <c r="C127" t="n">
         <v>0</v>
       </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2100,6 +2866,12 @@
       <c r="C128" t="n">
         <v>0</v>
       </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2113,6 +2885,12 @@
       <c r="C129" t="n">
         <v>2</v>
       </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2126,6 +2904,12 @@
       <c r="C130" t="n">
         <v>1</v>
       </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2139,6 +2923,12 @@
       <c r="C131" t="n">
         <v>0</v>
       </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2152,6 +2942,12 @@
       <c r="C132" t="n">
         <v>1</v>
       </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2165,6 +2961,12 @@
       <c r="C133" t="n">
         <v>0</v>
       </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2178,6 +2980,12 @@
       <c r="C134" t="n">
         <v>0</v>
       </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2191,6 +2999,12 @@
       <c r="C135" t="n">
         <v>0</v>
       </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2204,6 +3018,12 @@
       <c r="C136" t="n">
         <v>0</v>
       </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2217,6 +3037,12 @@
       <c r="C137" t="n">
         <v>0</v>
       </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2230,6 +3056,12 @@
       <c r="C138" t="n">
         <v>0</v>
       </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2243,6 +3075,12 @@
       <c r="C139" t="n">
         <v>0</v>
       </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2256,6 +3094,12 @@
       <c r="C140" t="n">
         <v>1</v>
       </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2269,6 +3113,12 @@
       <c r="C141" t="n">
         <v>0</v>
       </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2282,6 +3132,12 @@
       <c r="C142" t="n">
         <v>0</v>
       </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2295,6 +3151,12 @@
       <c r="C143" t="n">
         <v>0</v>
       </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2308,6 +3170,12 @@
       <c r="C144" t="n">
         <v>0</v>
       </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2319,6 +3187,12 @@
         <v>10</v>
       </c>
       <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
         <v>0</v>
       </c>
     </row>

--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/72425_SUMMARY.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/72425_SUMMARY.xlsx
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -761,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1673,7 +1673,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2395,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -2604,7 +2604,7 @@
         <v>4</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">

--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/72425_SUMMARY.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/72425_SUMMARY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>Number of Mitophagy Events Outside Dialated Area</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Surface Area of Donut</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Surface Area of Cytoplasm without Donut</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +488,12 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15499</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +513,12 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18113</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +538,12 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>1465</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15601</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +563,12 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21971</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +588,12 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7508</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +613,12 @@
       <c r="E7" t="n">
         <v>5</v>
       </c>
+      <c r="F7" t="n">
+        <v>3498</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21516</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +638,12 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17997</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +663,12 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18127</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +688,12 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7802</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +713,12 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11030</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +738,12 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +763,12 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11946</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -706,6 +788,12 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17334</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -725,6 +813,12 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>534</v>
+      </c>
+      <c r="G15" t="n">
+        <v>23341</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -744,6 +838,12 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15332</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -763,6 +863,12 @@
       <c r="E17" t="n">
         <v>5</v>
       </c>
+      <c r="F17" t="n">
+        <v>3287</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19433</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -782,6 +888,12 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17702</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -801,6 +913,12 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4303</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -820,6 +938,12 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>22651</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -839,6 +963,12 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6824</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -858,6 +988,12 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>23782</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -877,6 +1013,12 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
+      <c r="F23" t="n">
+        <v>928</v>
+      </c>
+      <c r="G23" t="n">
+        <v>22642</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -896,6 +1038,12 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
+      <c r="F24" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G24" t="n">
+        <v>23393</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -915,6 +1063,12 @@
       <c r="E25" t="n">
         <v>2</v>
       </c>
+      <c r="F25" t="n">
+        <v>5827</v>
+      </c>
+      <c r="G25" t="n">
+        <v>35395</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -934,6 +1088,12 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>12667</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -953,6 +1113,12 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9527</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -972,6 +1138,12 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5595</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -991,6 +1163,12 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
+      <c r="F29" t="n">
+        <v>1127</v>
+      </c>
+      <c r="G29" t="n">
+        <v>13226</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1010,6 +1188,12 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
+      <c r="F30" t="n">
+        <v>1715</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1029,6 +1213,12 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24732</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1048,6 +1238,12 @@
       <c r="E32" t="n">
         <v>2</v>
       </c>
+      <c r="F32" t="n">
+        <v>3857</v>
+      </c>
+      <c r="G32" t="n">
+        <v>15641</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1067,6 +1263,12 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
+      <c r="F33" t="n">
+        <v>1260</v>
+      </c>
+      <c r="G33" t="n">
+        <v>17339</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1086,6 +1288,12 @@
       <c r="E34" t="n">
         <v>0</v>
       </c>
+      <c r="F34" t="n">
+        <v>2575</v>
+      </c>
+      <c r="G34" t="n">
+        <v>13315</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1105,6 +1313,12 @@
       <c r="E35" t="n">
         <v>0</v>
       </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5571</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1124,6 +1338,12 @@
       <c r="E36" t="n">
         <v>0</v>
       </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12377</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1143,6 +1363,12 @@
       <c r="E37" t="n">
         <v>0</v>
       </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13131</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1162,6 +1388,12 @@
       <c r="E38" t="n">
         <v>0</v>
       </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>26812</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1181,6 +1413,12 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3194</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1200,6 +1438,12 @@
       <c r="E40" t="n">
         <v>8</v>
       </c>
+      <c r="F40" t="n">
+        <v>5973</v>
+      </c>
+      <c r="G40" t="n">
+        <v>34821</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1219,6 +1463,12 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>13668</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1238,6 +1488,12 @@
       <c r="E42" t="n">
         <v>0</v>
       </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5260</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1257,6 +1513,12 @@
       <c r="E43" t="n">
         <v>1</v>
       </c>
+      <c r="F43" t="n">
+        <v>3467</v>
+      </c>
+      <c r="G43" t="n">
+        <v>15317</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1276,6 +1538,12 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
+      <c r="F44" t="n">
+        <v>111</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9792</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1295,6 +1563,12 @@
       <c r="E45" t="n">
         <v>0</v>
       </c>
+      <c r="F45" t="n">
+        <v>6524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6516</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1314,6 +1588,12 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1938</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1333,6 +1613,12 @@
       <c r="E47" t="n">
         <v>4</v>
       </c>
+      <c r="F47" t="n">
+        <v>3069</v>
+      </c>
+      <c r="G47" t="n">
+        <v>21283</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1352,6 +1638,12 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5838</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1371,6 +1663,12 @@
       <c r="E49" t="n">
         <v>0</v>
       </c>
+      <c r="F49" t="n">
+        <v>1332</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7774</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1390,6 +1688,12 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9431</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1409,6 +1713,12 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>24512</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1428,6 +1738,12 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>19209</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1447,6 +1763,12 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8509</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1466,6 +1788,12 @@
       <c r="E54" t="n">
         <v>5</v>
       </c>
+      <c r="F54" t="n">
+        <v>2919</v>
+      </c>
+      <c r="G54" t="n">
+        <v>20235</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1485,6 +1813,12 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>13782</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1504,6 +1838,12 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
+      <c r="F56" t="n">
+        <v>2653</v>
+      </c>
+      <c r="G56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1523,6 +1863,12 @@
       <c r="E57" t="n">
         <v>0</v>
       </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1847</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1542,6 +1888,12 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
+      <c r="F58" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G58" t="n">
+        <v>20275</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1561,6 +1913,12 @@
       <c r="E59" t="n">
         <v>10</v>
       </c>
+      <c r="F59" t="n">
+        <v>1459</v>
+      </c>
+      <c r="G59" t="n">
+        <v>26207</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1580,6 +1938,12 @@
       <c r="E60" t="n">
         <v>1</v>
       </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>24056</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1599,6 +1963,12 @@
       <c r="E61" t="n">
         <v>0</v>
       </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7140</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1618,6 +1988,12 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>14656</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1637,6 +2013,12 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10739</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1656,6 +2038,12 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>19778</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1675,6 +2063,12 @@
       <c r="E65" t="n">
         <v>6</v>
       </c>
+      <c r="F65" t="n">
+        <v>5495</v>
+      </c>
+      <c r="G65" t="n">
+        <v>18582</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1694,6 +2088,12 @@
       <c r="E66" t="n">
         <v>0</v>
       </c>
+      <c r="F66" t="n">
+        <v>5278</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9695</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1713,6 +2113,12 @@
       <c r="E67" t="n">
         <v>0</v>
       </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4171</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1732,6 +2138,12 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
+      <c r="F68" t="n">
+        <v>1577</v>
+      </c>
+      <c r="G68" t="n">
+        <v>18106</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1751,6 +2163,12 @@
       <c r="E69" t="n">
         <v>0</v>
       </c>
+      <c r="F69" t="n">
+        <v>236</v>
+      </c>
+      <c r="G69" t="n">
+        <v>17774</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1770,6 +2188,12 @@
       <c r="E70" t="n">
         <v>0</v>
       </c>
+      <c r="F70" t="n">
+        <v>3685</v>
+      </c>
+      <c r="G70" t="n">
+        <v>21237</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1789,6 +2213,12 @@
       <c r="E71" t="n">
         <v>0</v>
       </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>15776</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1808,6 +2238,12 @@
       <c r="E72" t="n">
         <v>0</v>
       </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11300</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1827,6 +2263,12 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
+      <c r="F73" t="n">
+        <v>4399</v>
+      </c>
+      <c r="G73" t="n">
+        <v>9915</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1846,6 +2288,12 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>9142</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1865,6 +2313,12 @@
       <c r="E75" t="n">
         <v>0</v>
       </c>
+      <c r="F75" t="n">
+        <v>257</v>
+      </c>
+      <c r="G75" t="n">
+        <v>7246</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1884,6 +2338,12 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
+      <c r="F76" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G76" t="n">
+        <v>20322</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1903,6 +2363,12 @@
       <c r="E77" t="n">
         <v>3</v>
       </c>
+      <c r="F77" t="n">
+        <v>1959</v>
+      </c>
+      <c r="G77" t="n">
+        <v>39369</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1922,6 +2388,12 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
+      <c r="F78" t="n">
+        <v>1379</v>
+      </c>
+      <c r="G78" t="n">
+        <v>29377</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1941,6 +2413,12 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
+      <c r="F79" t="n">
+        <v>930</v>
+      </c>
+      <c r="G79" t="n">
+        <v>36086</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1960,6 +2438,12 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
+      <c r="F80" t="n">
+        <v>1708</v>
+      </c>
+      <c r="G80" t="n">
+        <v>12838</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1979,6 +2463,12 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>11950</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1998,6 +2488,12 @@
       <c r="E82" t="n">
         <v>1</v>
       </c>
+      <c r="F82" t="n">
+        <v>3078</v>
+      </c>
+      <c r="G82" t="n">
+        <v>12142</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2017,6 +2513,12 @@
       <c r="E83" t="n">
         <v>6</v>
       </c>
+      <c r="F83" t="n">
+        <v>4717</v>
+      </c>
+      <c r="G83" t="n">
+        <v>37941</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2036,6 +2538,12 @@
       <c r="E84" t="n">
         <v>0</v>
       </c>
+      <c r="F84" t="n">
+        <v>551</v>
+      </c>
+      <c r="G84" t="n">
+        <v>41298</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2055,6 +2563,12 @@
       <c r="E85" t="n">
         <v>0</v>
       </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3714</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2074,6 +2588,12 @@
       <c r="E86" t="n">
         <v>4</v>
       </c>
+      <c r="F86" t="n">
+        <v>8226</v>
+      </c>
+      <c r="G86" t="n">
+        <v>64812</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2093,6 +2613,12 @@
       <c r="E87" t="n">
         <v>0</v>
       </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>18483</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2112,6 +2638,12 @@
       <c r="E88" t="n">
         <v>0</v>
       </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>10426</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2131,6 +2663,12 @@
       <c r="E89" t="n">
         <v>1</v>
       </c>
+      <c r="F89" t="n">
+        <v>2766</v>
+      </c>
+      <c r="G89" t="n">
+        <v>14660</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2150,6 +2688,12 @@
       <c r="E90" t="n">
         <v>0</v>
       </c>
+      <c r="F90" t="n">
+        <v>4014</v>
+      </c>
+      <c r="G90" t="n">
+        <v>33765</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2169,6 +2713,12 @@
       <c r="E91" t="n">
         <v>0</v>
       </c>
+      <c r="F91" t="n">
+        <v>6252</v>
+      </c>
+      <c r="G91" t="n">
+        <v>20267</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2188,6 +2738,12 @@
       <c r="E92" t="n">
         <v>0</v>
       </c>
+      <c r="F92" t="n">
+        <v>1762</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6850</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2207,6 +2763,12 @@
       <c r="E93" t="n">
         <v>0</v>
       </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>16619</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2226,6 +2788,12 @@
       <c r="E94" t="n">
         <v>0</v>
       </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4667</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2245,6 +2813,12 @@
       <c r="E95" t="n">
         <v>0</v>
       </c>
+      <c r="F95" t="n">
+        <v>3061</v>
+      </c>
+      <c r="G95" t="n">
+        <v>22126</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2264,6 +2838,12 @@
       <c r="E96" t="n">
         <v>0</v>
       </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>6515</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2283,6 +2863,12 @@
       <c r="E97" t="n">
         <v>0</v>
       </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>15891</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2302,6 +2888,12 @@
       <c r="E98" t="n">
         <v>0</v>
       </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>14669</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2321,6 +2913,12 @@
       <c r="E99" t="n">
         <v>1</v>
       </c>
+      <c r="F99" t="n">
+        <v>2194</v>
+      </c>
+      <c r="G99" t="n">
+        <v>21812</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2340,6 +2938,12 @@
       <c r="E100" t="n">
         <v>0</v>
       </c>
+      <c r="F100" t="n">
+        <v>2880</v>
+      </c>
+      <c r="G100" t="n">
+        <v>13421</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2359,6 +2963,12 @@
       <c r="E101" t="n">
         <v>0</v>
       </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>10642</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2378,6 +2988,12 @@
       <c r="E102" t="n">
         <v>0</v>
       </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>17733</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2397,6 +3013,12 @@
       <c r="E103" t="n">
         <v>4</v>
       </c>
+      <c r="F103" t="n">
+        <v>6024</v>
+      </c>
+      <c r="G103" t="n">
+        <v>24674</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2416,6 +3038,12 @@
       <c r="E104" t="n">
         <v>0</v>
       </c>
+      <c r="F104" t="n">
+        <v>2970</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7238</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2435,6 +3063,12 @@
       <c r="E105" t="n">
         <v>0</v>
       </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>9776</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2454,6 +3088,12 @@
       <c r="E106" t="n">
         <v>0</v>
       </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3521</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2473,6 +3113,12 @@
       <c r="E107" t="n">
         <v>0</v>
       </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3370</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2492,6 +3138,12 @@
       <c r="E108" t="n">
         <v>0</v>
       </c>
+      <c r="F108" t="n">
+        <v>16039</v>
+      </c>
+      <c r="G108" t="n">
+        <v>61952</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2511,6 +3163,12 @@
       <c r="E109" t="n">
         <v>0</v>
       </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>22743</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2530,6 +3188,12 @@
       <c r="E110" t="n">
         <v>0</v>
       </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>9235</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2549,6 +3213,12 @@
       <c r="E111" t="n">
         <v>0</v>
       </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>7755</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2568,6 +3238,12 @@
       <c r="E112" t="n">
         <v>0</v>
       </c>
+      <c r="F112" t="n">
+        <v>1748</v>
+      </c>
+      <c r="G112" t="n">
+        <v>28084</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2587,6 +3263,12 @@
       <c r="E113" t="n">
         <v>0</v>
       </c>
+      <c r="F113" t="n">
+        <v>5430</v>
+      </c>
+      <c r="G113" t="n">
+        <v>15486</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2606,6 +3288,12 @@
       <c r="E114" t="n">
         <v>4</v>
       </c>
+      <c r="F114" t="n">
+        <v>9012</v>
+      </c>
+      <c r="G114" t="n">
+        <v>14190</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2625,6 +3313,12 @@
       <c r="E115" t="n">
         <v>0</v>
       </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>28619</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2644,6 +3338,12 @@
       <c r="E116" t="n">
         <v>0</v>
       </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>24872</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2663,6 +3363,12 @@
       <c r="E117" t="n">
         <v>1</v>
       </c>
+      <c r="F117" t="n">
+        <v>3757</v>
+      </c>
+      <c r="G117" t="n">
+        <v>25699</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2682,6 +3388,12 @@
       <c r="E118" t="n">
         <v>0</v>
       </c>
+      <c r="F118" t="n">
+        <v>2538</v>
+      </c>
+      <c r="G118" t="n">
+        <v>32560</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2701,6 +3413,12 @@
       <c r="E119" t="n">
         <v>0</v>
       </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>6837</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2720,6 +3438,12 @@
       <c r="E120" t="n">
         <v>0</v>
       </c>
+      <c r="F120" t="n">
+        <v>1171</v>
+      </c>
+      <c r="G120" t="n">
+        <v>27018</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2739,6 +3463,12 @@
       <c r="E121" t="n">
         <v>0</v>
       </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4319</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2758,6 +3488,12 @@
       <c r="E122" t="n">
         <v>1</v>
       </c>
+      <c r="F122" t="n">
+        <v>4377</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6585</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2777,6 +3513,12 @@
       <c r="E123" t="n">
         <v>0</v>
       </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>13128</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2796,6 +3538,12 @@
       <c r="E124" t="n">
         <v>0</v>
       </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>14112</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2815,6 +3563,12 @@
       <c r="E125" t="n">
         <v>0</v>
       </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>11772</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2834,6 +3588,12 @@
       <c r="E126" t="n">
         <v>0</v>
       </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5502</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2853,6 +3613,12 @@
       <c r="E127" t="n">
         <v>0</v>
       </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>6757</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2872,6 +3638,12 @@
       <c r="E128" t="n">
         <v>0</v>
       </c>
+      <c r="F128" t="n">
+        <v>849</v>
+      </c>
+      <c r="G128" t="n">
+        <v>24112</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2891,6 +3663,12 @@
       <c r="E129" t="n">
         <v>2</v>
       </c>
+      <c r="F129" t="n">
+        <v>3940</v>
+      </c>
+      <c r="G129" t="n">
+        <v>42462</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2910,6 +3688,12 @@
       <c r="E130" t="n">
         <v>1</v>
       </c>
+      <c r="F130" t="n">
+        <v>3254</v>
+      </c>
+      <c r="G130" t="n">
+        <v>12401</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2929,6 +3713,12 @@
       <c r="E131" t="n">
         <v>0</v>
       </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>14901</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2948,6 +3738,12 @@
       <c r="E132" t="n">
         <v>0</v>
       </c>
+      <c r="F132" t="n">
+        <v>3738</v>
+      </c>
+      <c r="G132" t="n">
+        <v>26294</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2967,6 +3763,12 @@
       <c r="E133" t="n">
         <v>0</v>
       </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>11854</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2986,6 +3788,12 @@
       <c r="E134" t="n">
         <v>0</v>
       </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>11350</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3005,6 +3813,12 @@
       <c r="E135" t="n">
         <v>0</v>
       </c>
+      <c r="F135" t="n">
+        <v>561</v>
+      </c>
+      <c r="G135" t="n">
+        <v>20717</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3024,6 +3838,12 @@
       <c r="E136" t="n">
         <v>0</v>
       </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>13494</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3043,6 +3863,12 @@
       <c r="E137" t="n">
         <v>0</v>
       </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>18227</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3062,6 +3888,12 @@
       <c r="E138" t="n">
         <v>0</v>
       </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>19813</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3081,6 +3913,12 @@
       <c r="E139" t="n">
         <v>0</v>
       </c>
+      <c r="F139" t="n">
+        <v>967</v>
+      </c>
+      <c r="G139" t="n">
+        <v>20769</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3100,6 +3938,12 @@
       <c r="E140" t="n">
         <v>9</v>
       </c>
+      <c r="F140" t="n">
+        <v>2444</v>
+      </c>
+      <c r="G140" t="n">
+        <v>22590</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3119,6 +3963,12 @@
       <c r="E141" t="n">
         <v>0</v>
       </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>19663</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3138,6 +3988,12 @@
       <c r="E142" t="n">
         <v>0</v>
       </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>13484</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3157,6 +4013,12 @@
       <c r="E143" t="n">
         <v>0</v>
       </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>11096</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3176,6 +4038,12 @@
       <c r="E144" t="n">
         <v>0</v>
       </c>
+      <c r="F144" t="n">
+        <v>1099</v>
+      </c>
+      <c r="G144" t="n">
+        <v>28340</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3194,6 +4062,12 @@
       </c>
       <c r="E145" t="n">
         <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>9990</v>
       </c>
     </row>
   </sheetData>
